--- a/ease_business.xlsx
+++ b/ease_business.xlsx
@@ -14,9 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ease of doing business score (0 = lowest performance to 100 = best performance)</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -374,49 +398,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>85.28856</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>83.54968</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>85.3154</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>84.00082999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>86.76465</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>86.1981</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>83.99668</v>
       </c>
     </row>
